--- a/static/out/download.xlsx
+++ b/static/out/download.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O255"/>
+  <dimension ref="A1:O218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1980,7 +1980,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>798.74</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>20.9</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>64.01000000000001</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>21.33</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>76.12</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -4519,7 +4519,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>121.1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>675.88</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4904,7 +4904,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4939,7 +4939,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>4763.75</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>62.28</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>126.29</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>475.67</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -5715,23 +5715,23 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>44946</v>
+        <v>44950</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - ATILA WESLE</t>
+          <t>SEFAZ PE - GNRE ON-LINE</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E147" t="b">
+          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>17.56</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
@@ -5742,7 +5742,7 @@
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="n">
-        <v>1176.56</v>
+        <v>10237.86</v>
       </c>
     </row>
     <row r="148">
@@ -5750,23 +5750,23 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>44946</v>
+        <v>44950</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - FLAVIO FERR</t>
+          <t>SEFAZ RJ GNRE</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E148" t="b">
+          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
@@ -5777,7 +5777,7 @@
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="n">
-        <v>1413</v>
+        <v>10226.61</v>
       </c>
     </row>
     <row r="149">
@@ -5785,23 +5785,23 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>44946</v>
+        <v>44950</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - DANILO FERN</t>
+          <t>SEFAZ/SP - AMBIENTEPAG</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E149" t="b">
+          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>33.62</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
@@ -5812,7 +5812,7 @@
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="n">
-        <v>1532.37</v>
+        <v>10192.99</v>
       </c>
     </row>
     <row r="150">
@@ -5820,23 +5820,23 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>44946</v>
+        <v>44950</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - JOSE TAVARE</t>
+          <t>GOVERNO DO RN GNRE</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E150" t="b">
+          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>27.13</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
@@ -5847,7 +5847,7 @@
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="n">
-        <v>1562.37</v>
+        <v>10165.86</v>
       </c>
     </row>
     <row r="151">
@@ -5855,23 +5855,23 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>44946</v>
+        <v>44951</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>GNRE ACRE- SEFAZ</t>
+          <t>PIX RECEBIDO - GABRIEL FIZ</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E151" t="b">
-        <v>0</v>
+          <t>VENDA VAREJO</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>60.46</v>
       </c>
       <c r="F151" t="n">
-        <v>8.609999999999999</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
@@ -5882,7 +5882,7 @@
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="n">
-        <v>1553.76</v>
+        <v>10226.32</v>
       </c>
     </row>
     <row r="152">
@@ -5890,23 +5890,23 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>44946</v>
+        <v>44951</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SEFAZ RJ GNRE</t>
+          <t>PIX RECEBIDO - MIGUEL FELI</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E152" t="b">
-        <v>0</v>
+          <t>VENDA VAREJO</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>816.53</v>
       </c>
       <c r="F152" t="n">
-        <v>32.55</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
@@ -5917,7 +5917,7 @@
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="n">
-        <v>1521.21</v>
+        <v>11042.85</v>
       </c>
     </row>
     <row r="153">
@@ -5925,23 +5925,23 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>44946</v>
+        <v>44951</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SEFAZ RJ GNRE</t>
+          <t>PIX RECEBIDO - FRANCISCO A</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E153" t="b">
-        <v>0</v>
+          <t>VENDA VAREJO</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>58.82</v>
       </c>
       <c r="F153" t="n">
-        <v>24.47</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
@@ -5952,7 +5952,7 @@
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="n">
-        <v>1496.74</v>
+        <v>11101.67</v>
       </c>
     </row>
     <row r="154">
@@ -5960,23 +5960,23 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>44946</v>
+        <v>44951</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SEFAZ/SP- AMBIENTEPAG</t>
+          <t>PIX RECEBIDO - FRANCISCO A</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E154" t="b">
-        <v>0</v>
+          <t>VENDA VAREJO</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>141.86</v>
       </c>
       <c r="F154" t="n">
-        <v>9.449999999999999</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
@@ -5987,7 +5987,7 @@
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="n">
-        <v>1487.29</v>
+        <v>11243.53</v>
       </c>
     </row>
     <row r="155">
@@ -5995,23 +5995,23 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>44946</v>
+        <v>44951</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>GNRE ON LINE</t>
+          <t>PIX RECEBIDO - MONICA MARI</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E155" t="b">
-        <v>0</v>
+          <t>VENDA VAREJO</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>402.16</v>
       </c>
       <c r="F155" t="n">
-        <v>91.34</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
@@ -6022,7 +6022,7 @@
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="n">
-        <v>1395.95</v>
+        <v>11645.69</v>
       </c>
     </row>
     <row r="156">
@@ -6030,23 +6030,23 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>44946</v>
+        <v>44951</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>GNRE ACRE- SEFAZ</t>
+          <t>PIX RECEBIDO - AMANDA FURT</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E156" t="b">
-        <v>0</v>
+          <t>VENDA VAREJO</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>541.8</v>
       </c>
       <c r="F156" t="n">
-        <v>5.71</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
@@ -6057,7 +6057,7 @@
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="n">
-        <v>1390.24</v>
+        <v>12187.49</v>
       </c>
     </row>
     <row r="157">
@@ -6065,23 +6065,23 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>44946</v>
+        <v>44951</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>SEFAZ RJ GNRE</t>
+          <t>CIELO VENDAS DEBITO</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E157" t="b">
-        <v>0</v>
+          <t>VENDA VAREJO</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0.99</v>
       </c>
       <c r="F157" t="n">
-        <v>21.88</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
@@ -6092,7 +6092,7 @@
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="n">
-        <v>1368.36</v>
+        <v>12188.48</v>
       </c>
     </row>
     <row r="158">
@@ -6100,23 +6100,23 @@
         <v>156</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>44946</v>
+        <v>44951</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SECRET. FAZENDA MG</t>
+          <t>PIX RECEBIDO - CIELO S.A</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E158" t="b">
-        <v>0</v>
+          <t>GERAL</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0.01</v>
       </c>
       <c r="F158" t="n">
-        <v>10.43</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="n">
-        <v>1357.93</v>
+        <v>12188.49</v>
       </c>
     </row>
     <row r="159">
@@ -6135,34 +6135,52 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>44946</v>
+        <v>44951</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>GOV. PARANA-SEFA- GNRE</t>
+          <t>DEBITO REF. NOTA: 587760-2-3-139-HACO ET</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E159" t="b">
+          <t>COMPRA DE MATERIA PRIMA</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>50.99</v>
-      </c>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+        <v>365.12</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>587760</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+      <c r="I159" t="n">
+        <v>3</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>139 HACO ETIQUETAS LTDA</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="n">
+        <v>44952</v>
+      </c>
+      <c r="L159" t="n">
+        <v>365.12</v>
+      </c>
       <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>365.12</v>
+      </c>
       <c r="O159" t="n">
-        <v>1306.94</v>
+        <v>11823.37</v>
       </c>
     </row>
     <row r="160">
@@ -6170,34 +6188,52 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>44946</v>
+        <v>44951</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SEFAZ RJ GNRE</t>
+          <t>DEBITO REF. NOTA: 35737-1-1-310-SANSIL I</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E160" t="b">
+          <t>COMPRA DE MATERIA PRIMA</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+        <v>557.98</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>35737</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>310 SANSIL INDUSTRIA TEXTIL LTDA</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="L160" t="n">
+        <v>557.98</v>
+      </c>
       <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
+      <c r="N160" t="n">
+        <v>557.98</v>
+      </c>
       <c r="O160" t="n">
-        <v>1295.87</v>
+        <v>11265.39</v>
       </c>
     </row>
     <row r="161">
@@ -6205,34 +6241,52 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>44946</v>
+        <v>44951</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>GNRE ONLINE</t>
+          <t>DEBITO REF. NOTA: 25012023-1-1-251-TELEF</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E161" t="b">
+          <t>PRESTADORA DE SERVIÇOS</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+        <v>269.78</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>25012023</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>251 TELEFONICA BRASIL S.A. (VIVO)</t>
+        </is>
+      </c>
+      <c r="K161" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="L161" t="n">
+        <v>269.78</v>
+      </c>
       <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>269.78</v>
+      </c>
       <c r="O161" t="n">
-        <v>1287.63</v>
+        <v>10995.61</v>
       </c>
     </row>
     <row r="162">
@@ -6240,34 +6294,52 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>44949</v>
+        <v>44951</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - MARIA V PAS</t>
+          <t>DEBITO REF. NOTA: 4760796-1-1-138-COMPAI</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E162" t="b">
+          <t>PRESTADORA DE SERVIÇOS</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
-      </c>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+        <v>2179.23</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>4760796</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>138 COMPAINHA ENERGETICA DO CEARA</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="n">
+        <v>44952</v>
+      </c>
+      <c r="L162" t="n">
+        <v>2179.23</v>
+      </c>
       <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr"/>
+      <c r="N162" t="n">
+        <v>2179.23</v>
+      </c>
       <c r="O162" t="n">
-        <v>1315.83</v>
+        <v>8816.379999999999</v>
       </c>
     </row>
     <row r="163">
@@ -6275,23 +6347,23 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>44949</v>
+        <v>44951</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - TALITA CARN</t>
+          <t>BRISANET-NF'S 245424,589357 E</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E163" t="b">
+          <t>PRESTADORA DE SERVIÇOS</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>149.89</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
@@ -6302,7 +6374,7 @@
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="n">
-        <v>1325.69</v>
+        <v>8666.49</v>
       </c>
     </row>
     <row r="164">
@@ -6310,23 +6382,23 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>44949</v>
+        <v>44951</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - TIAGO ARAUJ</t>
+          <t>VIVO EMPRESA-REF. 01/2023- FIL. SALVADOR</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E164" t="b">
+          <t>PRESTADORA DE SERVIÇOS</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>33.28</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
@@ -6337,7 +6409,7 @@
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="n">
-        <v>1386.24</v>
+        <v>8633.209999999999</v>
       </c>
     </row>
     <row r="165">
@@ -6345,23 +6417,23 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>44949</v>
+        <v>44951</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - DIEGO MENDO</t>
+          <t>GNRE ON LINE RORAIMA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E165" t="b">
+          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>21.93</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
@@ -6372,7 +6444,7 @@
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="n">
-        <v>1442.64</v>
+        <v>8611.280000000001</v>
       </c>
     </row>
     <row r="166">
@@ -6380,23 +6452,23 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>44949</v>
+        <v>44951</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - VLADIJACKSO</t>
+          <t>SEFAZ PE- GNRE ON-LINE</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E166" t="b">
+          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
@@ -6407,7 +6479,7 @@
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="n">
-        <v>1492.64</v>
+        <v>8599.879999999999</v>
       </c>
     </row>
     <row r="167">
@@ -6415,34 +6487,52 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>44949</v>
+        <v>44951</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>CIELO ANTECIPAÇÃO DE RECE</t>
+          <t>DEBITO REF. NOTA: 6022023-1-3-171-SECRET</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>GERAL</t>
-        </is>
-      </c>
-      <c r="E167" t="b">
+          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
-      </c>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+        <v>65</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>6022023</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>3</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>171 SECRETARIA DA FAZENDA DO ESTADO06DO/ 0C2/E2A0R2A3</t>
+        </is>
+      </c>
+      <c r="K167" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="L167" t="n">
+        <v>65</v>
+      </c>
       <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr"/>
+      <c r="N167" t="n">
+        <v>65</v>
+      </c>
       <c r="O167" t="n">
-        <v>1492.65</v>
+        <v>8534.879999999999</v>
       </c>
     </row>
     <row r="168">
@@ -6450,11 +6540,11 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>44949</v>
+        <v>44951</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>GNRE ON LINE</t>
+          <t>ICMS ENTRADA-REF.: 12/2022-FIL. SALVADOR</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -6462,11 +6552,11 @@
           <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
         </is>
       </c>
-      <c r="E168" t="b">
+      <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>53.15</v>
+        <v>1024</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
@@ -6477,7 +6567,7 @@
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="n">
-        <v>1439.5</v>
+        <v>7510.88</v>
       </c>
     </row>
     <row r="169">
@@ -6485,11 +6575,11 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>44949</v>
+        <v>44951</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SEFAZ/SP - AMBIENTEPAG</t>
+          <t>ICMS ENTRADA-REF.: 12/2022-FIL. SALVADOR</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -6497,11 +6587,11 @@
           <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
         </is>
       </c>
-      <c r="E169" t="b">
+      <c r="E169" t="n">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>10.09</v>
+        <v>4168.04</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
@@ -6512,7 +6602,7 @@
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="n">
-        <v>1429.41</v>
+        <v>3342.84</v>
       </c>
     </row>
     <row r="170">
@@ -6520,11 +6610,11 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>44949</v>
+        <v>44951</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SEFAZ/SP - AMBIENTEPAG</t>
+          <t>SEFAZ RJ GNRE</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -6532,11 +6622,11 @@
           <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
         </is>
       </c>
-      <c r="E170" t="b">
+      <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>8.130000000000001</v>
+        <v>45.17</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
@@ -6547,7 +6637,7 @@
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="n">
-        <v>1421.28</v>
+        <v>3297.67</v>
       </c>
     </row>
     <row r="171">
@@ -6555,11 +6645,11 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>44949</v>
+        <v>44951</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>SEFAZ/SP - AMBIENTEPAG</t>
+          <t>SEFAZ/SP- AMBIENTEPAG</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -6567,11 +6657,11 @@
           <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
         </is>
       </c>
-      <c r="E171" t="b">
+      <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>61.87</v>
+        <v>15.01</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
@@ -6582,7 +6672,7 @@
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="n">
-        <v>1359.41</v>
+        <v>3282.66</v>
       </c>
     </row>
     <row r="172">
@@ -6590,11 +6680,11 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>44949</v>
+        <v>44951</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>SEFAZ/SP - AMBIENTEPAG</t>
+          <t>SEFAZ RJ GNRE</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -6602,11 +6692,11 @@
           <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
         </is>
       </c>
-      <c r="E172" t="b">
+      <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>12.43</v>
+        <v>12.7</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
@@ -6617,7 +6707,7 @@
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="n">
-        <v>1346.98</v>
+        <v>3269.96</v>
       </c>
     </row>
     <row r="173">
@@ -6625,11 +6715,11 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>44949</v>
+        <v>44951</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SEFAZ RJ GNRE</t>
+          <t>GOV RS GNRE ELETRONICA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -6637,11 +6727,11 @@
           <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
         </is>
       </c>
-      <c r="E173" t="b">
+      <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>7.05</v>
+        <v>31.95</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
@@ -6652,7 +6742,7 @@
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="n">
-        <v>1339.93</v>
+        <v>3238.01</v>
       </c>
     </row>
     <row r="174">
@@ -6660,11 +6750,11 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>44949</v>
+        <v>44951</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>GNRE ONLINE - MT</t>
+          <t>SECRET. FAZENDA MG</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -6672,11 +6762,11 @@
           <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
         </is>
       </c>
-      <c r="E174" t="b">
+      <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>14.03</v>
+        <v>25.88</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
@@ -6687,7 +6777,7 @@
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="n">
-        <v>1325.9</v>
+        <v>3212.13</v>
       </c>
     </row>
     <row r="175">
@@ -6695,23 +6785,23 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>44949</v>
+        <v>44952</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>SEFAZ SE GNRE ON LINE</t>
+          <t>PIX RECEBIDO - JOSE ANDERS</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E175" t="b">
-        <v>0</v>
+          <t>VENDA VAREJO</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>62.28</v>
       </c>
       <c r="F175" t="n">
-        <v>54.48</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
@@ -6722,7 +6812,7 @@
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="n">
-        <v>1271.42</v>
+        <v>3274.41</v>
       </c>
     </row>
     <row r="176">
@@ -6730,23 +6820,23 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>44949</v>
+        <v>44952</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>GOV. PARANA-SEFA- GNRE</t>
+          <t>PIX RECEBIDO - ANA CRISTIN</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E176" t="b">
-        <v>0</v>
+          <t>VENDA VAREJO</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>20.9</v>
       </c>
       <c r="F176" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
@@ -6757,7 +6847,7 @@
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="n">
-        <v>1217.02</v>
+        <v>3295.31</v>
       </c>
     </row>
     <row r="177">
@@ -6765,23 +6855,23 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>44949</v>
+        <v>44952</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SEFAZ RJ GNRE</t>
+          <t>TED-PAGAMENTO FORNECEDOR</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E177" t="b">
-        <v>0</v>
+          <t>GERAL</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>0.19</v>
       </c>
       <c r="F177" t="n">
-        <v>54.1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
@@ -6792,7 +6882,7 @@
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="n">
-        <v>1162.92</v>
+        <v>3295.5</v>
       </c>
     </row>
     <row r="178">
@@ -6800,23 +6890,23 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>44949</v>
+        <v>44952</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>GOV. PARANA-SEFA - GNRE</t>
+          <t>PIX RECEBIDO - CIELO S.A</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E178" t="b">
-        <v>0</v>
+          <t>GERAL</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0.01</v>
       </c>
       <c r="F178" t="n">
-        <v>10.46</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
@@ -6827,7 +6917,7 @@
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="n">
-        <v>1152.46</v>
+        <v>3295.51</v>
       </c>
     </row>
     <row r="179">
@@ -6835,20 +6925,20 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>44950</v>
+        <v>44952</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - EGILSON RIB</t>
+          <t>PIX RECEBIDO - CIELO S.A</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E179" t="b">
-        <v>0</v>
+          <t>GERAL</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0.01</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -6862,7 +6952,7 @@
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="n">
-        <v>1224.45</v>
+        <v>3295.52</v>
       </c>
     </row>
     <row r="180">
@@ -6870,20 +6960,20 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>44950</v>
+        <v>44952</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>GTED-CREDITO EM CONTA-PAGSEGURO-FIL.FORT</t>
+          <t>TED- PAGAMENTO FORNECEDOR</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E180" t="b">
-        <v>0</v>
+          <t>GERAL</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>0.3</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -6897,7 +6987,7 @@
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="n">
-        <v>12424.45</v>
+        <v>3295.82</v>
       </c>
     </row>
     <row r="181">
@@ -6905,34 +6995,52 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>44950</v>
+        <v>44952</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - LUCAS GUEDE</t>
+          <t>DEBITO REF. NOTA: 371701-1-1-102-MANDACA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E181" t="b">
+          <t>17 PRESTADORA DE SERVIÇOS</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
-      </c>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+        <v>2250.2</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>371701</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>102 MANDACARU ADMINISTRADORA DE CAR2T5O/E0S2/S20A23</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="n">
+        <v>44952</v>
+      </c>
+      <c r="L181" t="n">
+        <v>2250.2</v>
+      </c>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>2250.2</v>
+      </c>
       <c r="O181" t="n">
-        <v>12495.39</v>
+        <v>1045.62</v>
       </c>
     </row>
     <row r="182">
@@ -6940,23 +7048,23 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>44950</v>
+        <v>44952</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - FABIO FERRE</t>
+          <t>SEFAZ RJ GNRE</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E182" t="b">
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>57.41</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
@@ -6967,7 +7075,7 @@
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="n">
-        <v>12706.36</v>
+        <v>988.21</v>
       </c>
     </row>
     <row r="183">
@@ -6975,23 +7083,23 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>44950</v>
+        <v>44952</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - FRANCISCO L</t>
+          <t>SECRET. FAZENDA MG</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E183" t="b">
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>9.76</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
@@ -7002,7 +7110,7 @@
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="n">
-        <v>12832.85</v>
+        <v>978.45</v>
       </c>
     </row>
     <row r="184">
@@ -7010,23 +7118,23 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>44950</v>
+        <v>44952</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>DEBITO REF. NOTA: 975-1-4-227-ALFITEC SO</t>
+          <t>SEFAZ - GNRE ON LINE</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>COMPRA DE MATERIA PRIMA</t>
-        </is>
-      </c>
-      <c r="E184" t="b">
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>2577.43</v>
+        <v>17.65</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
@@ -7037,7 +7145,7 @@
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="n">
-        <v>10255.42</v>
+        <v>960.8</v>
       </c>
     </row>
     <row r="185">
@@ -7045,21 +7153,23 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>44950</v>
+        <v>44952</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SEFAZ PE - GNRE ON-LINE</t>
+          <t>GOVERNO DO RN GNRE</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
       <c r="F185" t="n">
-        <v>17.56</v>
+        <v>25.36</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
@@ -7070,7 +7180,7 @@
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="n">
-        <v>10237.86</v>
+        <v>935.4400000000001</v>
       </c>
     </row>
     <row r="186">
@@ -7078,7 +7188,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>44950</v>
+        <v>44952</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -7087,12 +7197,14 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
       <c r="F186" t="n">
-        <v>11.25</v>
+        <v>23.29</v>
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
@@ -7103,7 +7215,7 @@
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="n">
-        <v>10226.61</v>
+        <v>912.15</v>
       </c>
     </row>
     <row r="187">
@@ -7111,32 +7223,52 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>44950</v>
+        <v>44952</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>SEFAZ/SP - AMBIENTEPAG</t>
+          <t>DEBITO REF. NOTA: 8022023-1-1-171-SECRET</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
       <c r="F187" t="n">
-        <v>33.62</v>
-      </c>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+        <v>427.71</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>8022023</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>171 SECRETARIA DA FAZENDA DO ESTADO08DO/0C2E/A2R0A23</t>
+        </is>
+      </c>
+      <c r="K187" s="2" t="n">
+        <v>44952</v>
+      </c>
+      <c r="L187" t="n">
+        <v>427.71</v>
+      </c>
       <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>427.71</v>
+      </c>
       <c r="O187" t="n">
-        <v>10192.99</v>
+        <v>484.44</v>
       </c>
     </row>
     <row r="188">
@@ -7144,21 +7276,23 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>44950</v>
+        <v>44953</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>GOVERNO DO RN GNRE</t>
+          <t>CIELO VENDAS CREDITO</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr"/>
+          <t>4 VENDA VAREJO</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>1588.48</v>
+      </c>
       <c r="F188" t="n">
-        <v>27.13</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
@@ -7169,7 +7303,7 @@
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="n">
-        <v>10165.86</v>
+        <v>2072.92</v>
       </c>
     </row>
     <row r="189">
@@ -7177,19 +7311,21 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>44951</v>
+        <v>44953</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - GABRIEL FIZ</t>
+          <t>CIELO ANTECIPAÇÃO DE RECE</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr"/>
+          <t>32 GERAL</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>0.01</v>
+      </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
@@ -7202,7 +7338,7 @@
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="n">
-        <v>10226.32</v>
+        <v>2072.93</v>
       </c>
     </row>
     <row r="190">
@@ -7210,21 +7346,23 @@
         <v>188</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>44951</v>
+        <v>44953</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - MIGUEL FELI</t>
+          <t>ADIANTAMENTO DE SALARIO-LUCILENE- MATRIZ</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr"/>
+          <t>25 TRANSFERENCIA ENTRE CONTAS</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
@@ -7235,7 +7373,7 @@
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="n">
-        <v>11042.85</v>
+        <v>1972.93</v>
       </c>
     </row>
     <row r="191">
@@ -7243,19 +7381,21 @@
         <v>189</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - FRANCISCO A</t>
+          <t>TED-CREDITO EM CONTA-PAGSEGURO-FIL. FORT</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr"/>
+          <t>4 VENDA VAREJO</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>3180</v>
+      </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
@@ -7268,7 +7408,7 @@
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="n">
-        <v>11101.67</v>
+        <v>5152.93</v>
       </c>
     </row>
     <row r="192">
@@ -7276,19 +7416,21 @@
         <v>190</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - FRANCISCO A</t>
+          <t>CIELO VENDAS DEBITO</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
+          <t>4 VENDA VAREJO</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>161.71</v>
+      </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
@@ -7301,7 +7443,7 @@
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="n">
-        <v>11243.53</v>
+        <v>5314.64</v>
       </c>
     </row>
     <row r="193">
@@ -7309,19 +7451,21 @@
         <v>191</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - MONICA MARI</t>
+          <t>CIELO VENDAS CREDITO</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr"/>
+          <t>4 VENDA VAREJO</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>399.51</v>
+      </c>
       <c r="F193" t="n">
         <v>0</v>
       </c>
@@ -7334,7 +7478,7 @@
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="n">
-        <v>11645.69</v>
+        <v>5714.15</v>
       </c>
     </row>
     <row r="194">
@@ -7342,21 +7486,23 @@
         <v>192</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - AMANDA FURT</t>
+          <t>SEFA RJ GNRE</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>14.31</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
@@ -7367,7 +7513,7 @@
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="n">
-        <v>12187.49</v>
+        <v>5699.84</v>
       </c>
     </row>
     <row r="195">
@@ -7375,21 +7521,23 @@
         <v>193</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>CIELO VENDAS DEBITO</t>
+          <t>SEFAZ RJ GNRE</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>52.97</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
@@ -7400,7 +7548,7 @@
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="n">
-        <v>12188.48</v>
+        <v>5646.87</v>
       </c>
     </row>
     <row r="196">
@@ -7408,21 +7556,23 @@
         <v>194</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - CIELO S.A</t>
+          <t>GOV. PARANA-SEFA - GNRE</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>GERAL</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>8.84</v>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
@@ -7433,7 +7583,7 @@
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="n">
-        <v>12188.49</v>
+        <v>5638.03</v>
       </c>
     </row>
     <row r="197">
@@ -7441,50 +7591,34 @@
         <v>195</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>DEBITO REF. NOTA: 587760-2-3-139-HACO ET</t>
+          <t>SEFAZ/SP- AMBIENTEPAG</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>COMPRA DE MATERIA PRIMA</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
       <c r="F197" t="n">
-        <v>365.12</v>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>587760</t>
-        </is>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>3</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>139 HACO ETIQUETAS LTDA</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="n">
-        <v>44952</v>
-      </c>
-      <c r="L197" t="n">
-        <v>365.12</v>
-      </c>
+        <v>7.93</v>
+      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
-      <c r="N197" t="n">
-        <v>365.12</v>
-      </c>
+      <c r="N197" t="inlineStr"/>
       <c r="O197" t="n">
-        <v>11823.37</v>
+        <v>5630.1</v>
       </c>
     </row>
     <row r="198">
@@ -7492,50 +7626,34 @@
         <v>196</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>DEBITO REF. NOTA: 35737-1-1-310-SANSIL I</t>
+          <t>SECRET. FAZENDA MG</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>COMPRA DE MATERIA PRIMA</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
       <c r="F198" t="n">
-        <v>557.98</v>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>35737</t>
-        </is>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>310 SANSIL INDUSTRIA TEXTIL LTDA</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="n">
-        <v>44951</v>
-      </c>
-      <c r="L198" t="n">
-        <v>557.98</v>
-      </c>
+        <v>36.69</v>
+      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
-      <c r="N198" t="n">
-        <v>557.98</v>
-      </c>
+      <c r="N198" t="inlineStr"/>
       <c r="O198" t="n">
-        <v>11265.39</v>
+        <v>5593.41</v>
       </c>
     </row>
     <row r="199">
@@ -7543,50 +7661,34 @@
         <v>197</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DEBITO REF. NOTA: 25012023-1-1-251-TELEF</t>
+          <t>GNRE SEFAZ SC</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>PRESTADORA DE SERVIÇOS</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
       <c r="F199" t="n">
-        <v>269.78</v>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>25012023</t>
-        </is>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>251 TELEFONICA BRASIL S.A. (VIVO)</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="n">
-        <v>44951</v>
-      </c>
-      <c r="L199" t="n">
-        <v>269.78</v>
-      </c>
+        <v>5.33</v>
+      </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
-      <c r="N199" t="n">
-        <v>269.78</v>
-      </c>
+      <c r="N199" t="inlineStr"/>
       <c r="O199" t="n">
-        <v>10995.61</v>
+        <v>5588.08</v>
       </c>
     </row>
     <row r="200">
@@ -7594,50 +7696,34 @@
         <v>198</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>DEBITO REF. NOTA: 4760796-1-1-138-COMPAI</t>
+          <t>GOV. PARANA-SEFA- GNRE</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>PRESTADORA DE SERVIÇOS</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
       <c r="F200" t="n">
-        <v>2179.23</v>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>4760796</t>
-        </is>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>138 COMPAINHA ENERGETICA DO CEARA</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="n">
-        <v>44952</v>
-      </c>
-      <c r="L200" t="n">
-        <v>2179.23</v>
-      </c>
+        <v>45.2</v>
+      </c>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
-      <c r="N200" t="n">
-        <v>2179.23</v>
-      </c>
+      <c r="N200" t="inlineStr"/>
       <c r="O200" t="n">
-        <v>8816.379999999999</v>
+        <v>5542.88</v>
       </c>
     </row>
     <row r="201">
@@ -7645,21 +7731,23 @@
         <v>199</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>BRISANET-NF'S 245424,589357 E</t>
+          <t>SEFA GNRE ON LINE</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>PRESTADORA DE SERVIÇOS</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
       <c r="F201" t="n">
-        <v>149.89</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
@@ -7670,7 +7758,7 @@
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="n">
-        <v>8666.49</v>
+        <v>5478.59</v>
       </c>
     </row>
     <row r="202">
@@ -7678,21 +7766,23 @@
         <v>200</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>VIVO EMPRESA-REF. 01/2023- FIL. SALVADOR</t>
+          <t>GNRE ON LINE SEFAZ BA</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>PRESTADORA DE SERVIÇOS</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
       <c r="F202" t="n">
-        <v>33.28</v>
+        <v>5.77</v>
       </c>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
@@ -7703,7 +7793,7 @@
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="n">
-        <v>8633.209999999999</v>
+        <v>5472.82</v>
       </c>
     </row>
     <row r="203">
@@ -7711,21 +7801,23 @@
         <v>201</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>GNRE ON LINE RORAIMA</t>
+          <t>GNRE ELETRONICA-SEFAZ MS</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
       <c r="F203" t="n">
-        <v>21.93</v>
+        <v>5.96</v>
       </c>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
@@ -7736,7 +7828,7 @@
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="n">
-        <v>8611.280000000001</v>
+        <v>5466.86</v>
       </c>
     </row>
     <row r="204">
@@ -7744,32 +7836,52 @@
         <v>202</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SEFAZ PE- GNRE ON-LINE</t>
+          <t>DEBITO REF. NOTA: 30012023-1-2-1-WTC IND</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr"/>
+          <t>28 DESPESAS ADMINISTRATIVAS</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
       <c r="F204" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+        <v>2067.16</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>30012023</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>2</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>1 WTC IND E COM DE CONF E EQUIPAM3EN0T/0OS1/2023</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="L204" t="n">
+        <v>2067.16</v>
+      </c>
       <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>2067.16</v>
+      </c>
       <c r="O204" t="n">
-        <v>8599.879999999999</v>
+        <v>3399.7</v>
       </c>
     </row>
     <row r="205">
@@ -7777,50 +7889,34 @@
         <v>203</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>DEBITO REF. NOTA: 6022023-1-3-171-SECRET</t>
+          <t>SELENE - NF 222746- FIL. SALVADOR</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr"/>
+          <t>37 COMPRA MERC ADQ TERCEIROS</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
       <c r="F205" t="n">
-        <v>65</v>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>6022023</t>
-        </is>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>3</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>171 SECRETARIA DA FAZENDA DO ESTADO06DO/ 0C2/E2A0R2A3</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="n">
-        <v>44951</v>
-      </c>
-      <c r="L205" t="n">
-        <v>65</v>
-      </c>
+        <v>1612.38</v>
+      </c>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="inlineStr"/>
-      <c r="N205" t="n">
-        <v>65</v>
-      </c>
+      <c r="N205" t="inlineStr"/>
       <c r="O205" t="n">
-        <v>8534.879999999999</v>
+        <v>1787.32</v>
       </c>
     </row>
     <row r="206">
@@ -7828,21 +7924,23 @@
         <v>204</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>44951</v>
+        <v>44957</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>ICMS ENTRADA-REF.: 12/2022-FIL. SALVADOR</t>
+          <t>PIX RECEBIDO - JULIO CESAR</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr"/>
+          <t>4 VENDA VAREJO</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>195.5</v>
+      </c>
       <c r="F206" t="n">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
@@ -7853,7 +7951,7 @@
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="n">
-        <v>7510.88</v>
+        <v>1982.82</v>
       </c>
     </row>
     <row r="207">
@@ -7861,21 +7959,23 @@
         <v>205</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>44951</v>
+        <v>44957</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>ICMS ENTRADA-REF.: 12/2022-FIL. SALVADOR</t>
+          <t>CIELO VENDAS CREDITO</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr"/>
+          <t>4 VENDA VAREJO</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>585.21</v>
+      </c>
       <c r="F207" t="n">
-        <v>4168.04</v>
+        <v>0</v>
       </c>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
@@ -7886,7 +7986,7 @@
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="n">
-        <v>3342.84</v>
+        <v>2568.03</v>
       </c>
     </row>
     <row r="208">
@@ -7894,21 +7994,23 @@
         <v>206</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>44951</v>
+        <v>44957</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SEFAZ RJ GNRE</t>
+          <t>PIX RECEBIDO - HUGO LEONAR</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr"/>
+          <t>4 VENDA VAREJO</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>85.5</v>
+      </c>
       <c r="F208" t="n">
-        <v>45.17</v>
+        <v>0</v>
       </c>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr"/>
@@ -7919,7 +8021,7 @@
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="n">
-        <v>3297.67</v>
+        <v>2653.53</v>
       </c>
     </row>
     <row r="209">
@@ -7927,21 +8029,23 @@
         <v>207</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>44951</v>
+        <v>44957</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>SEFAZ/SP- AMBIENTEPAG</t>
+          <t>GNRE- GEFAZ DF ONLINE</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
       <c r="F209" t="n">
-        <v>15.01</v>
+        <v>12.78</v>
       </c>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
@@ -7952,7 +8056,7 @@
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="n">
-        <v>3282.66</v>
+        <v>2640.75</v>
       </c>
     </row>
     <row r="210">
@@ -7960,21 +8064,23 @@
         <v>208</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>44951</v>
+        <v>44957</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SEFAZ RJ GNRE</t>
+          <t>GNRE ON LINE</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
       <c r="F210" t="n">
-        <v>12.7</v>
+        <v>146.62</v>
       </c>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
@@ -7985,7 +8091,7 @@
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="n">
-        <v>3269.96</v>
+        <v>2494.13</v>
       </c>
     </row>
     <row r="211">
@@ -7993,21 +8099,23 @@
         <v>209</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>44951</v>
+        <v>44957</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>GOV RS GNRE ELETRONICA</t>
+          <t>GNRE - GEFAZ DF ONLINE</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
       <c r="F211" t="n">
-        <v>31.95</v>
+        <v>70.16</v>
       </c>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
@@ -8018,7 +8126,7 @@
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="n">
-        <v>3238.01</v>
+        <v>2423.97</v>
       </c>
     </row>
     <row r="212">
@@ -8026,21 +8134,23 @@
         <v>210</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>44951</v>
+        <v>44957</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>SECRET. FAZENDA MG</t>
+          <t>SEFAZ RJ GNRE</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
       <c r="F212" t="n">
-        <v>25.88</v>
+        <v>28.51</v>
       </c>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
@@ -8051,7 +8161,7 @@
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="n">
-        <v>3212.13</v>
+        <v>2395.46</v>
       </c>
     </row>
     <row r="213">
@@ -8059,21 +8169,23 @@
         <v>211</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>44952</v>
+        <v>44957</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - JOSE ANDERS</t>
+          <t>SEFAZ - GNRE ON LINE</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
@@ -8084,7 +8196,7 @@
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="n">
-        <v>3274.41</v>
+        <v>2361.76</v>
       </c>
     </row>
     <row r="214">
@@ -8092,21 +8204,23 @@
         <v>212</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>44952</v>
+        <v>44957</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - ANA CRISTIN</t>
+          <t>GOVERNO DO RN GNRE</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>11.73</v>
       </c>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
@@ -8117,7 +8231,7 @@
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="n">
-        <v>3295.31</v>
+        <v>2350.03</v>
       </c>
     </row>
     <row r="215">
@@ -8125,21 +8239,23 @@
         <v>213</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>44952</v>
+        <v>44957</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>TED-PAGAMENTO FORNECEDOR</t>
+          <t>GOV RS GNRE ELETRONICA</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>GERAL</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>8.92</v>
       </c>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
@@ -8150,7 +8266,7 @@
       <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="n">
-        <v>3295.5</v>
+        <v>2341.11</v>
       </c>
     </row>
     <row r="216">
@@ -8158,21 +8274,23 @@
         <v>214</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>44952</v>
+        <v>44957</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - CIELO S.A</t>
+          <t>SECRET. FAZENDA MG</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>GERAL</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>29.61</v>
       </c>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
@@ -8183,7 +8301,7 @@
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="n">
-        <v>3295.51</v>
+        <v>2311.5</v>
       </c>
     </row>
     <row r="217">
@@ -8191,21 +8309,23 @@
         <v>215</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>44952</v>
+        <v>44957</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO - CIELO S.A</t>
+          <t>GNRE ELETRONICA-SEFAZ MS</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>GERAL</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr"/>
+          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
@@ -8216,7 +8336,7 @@
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="n">
-        <v>3295.52</v>
+        <v>2279.5</v>
       </c>
     </row>
     <row r="218">
@@ -8224,21 +8344,23 @@
         <v>216</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>44952</v>
+        <v>44957</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>TED- PAGAMENTO FORNECEDOR</t>
+          <t>PIX ENVIADO - VIACREDI</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>GERAL</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr"/>
+          <t>25 TRANSFERENCIA ENTRE CONTAS</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
@@ -8249,1283 +8371,6 @@
       <c r="M218" t="inlineStr"/>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="n">
-        <v>3295.82</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" s="2" t="n">
-        <v>44952</v>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>DEBITO REF. NOTA: 371701-1-1-102-MANDACA</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>17 PRESTADORA DE SERVIÇOS</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="n">
-        <v>2250.2</v>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>371701</t>
-        </is>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>102 MANDACARU ADMINISTRADORA DE CAR2T5O/E0S2/S20A23</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="n">
-        <v>44952</v>
-      </c>
-      <c r="L219" t="n">
-        <v>2250.2</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-      <c r="N219" t="n">
-        <v>2250.2</v>
-      </c>
-      <c r="O219" t="n">
-        <v>1045.62</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" s="2" t="n">
-        <v>44952</v>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>SEFAZ RJ GNRE</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="n">
-        <v>57.41</v>
-      </c>
-      <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="inlineStr"/>
-      <c r="N220" t="inlineStr"/>
-      <c r="O220" t="n">
-        <v>988.21</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" s="2" t="n">
-        <v>44952</v>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>SECRET. FAZENDA MG</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="inlineStr"/>
-      <c r="N221" t="inlineStr"/>
-      <c r="O221" t="n">
-        <v>978.45</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" s="2" t="n">
-        <v>44952</v>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>SEFAZ - GNRE ON LINE</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="inlineStr"/>
-      <c r="N222" t="inlineStr"/>
-      <c r="O222" t="n">
-        <v>960.8</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" s="2" t="n">
-        <v>44952</v>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>GOVERNO DO RN GNRE</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="n">
-        <v>25.36</v>
-      </c>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="inlineStr"/>
-      <c r="N223" t="inlineStr"/>
-      <c r="O223" t="n">
-        <v>935.4400000000001</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" s="2" t="n">
-        <v>44952</v>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>SEFAZ RJ GNRE</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="inlineStr"/>
-      <c r="N224" t="inlineStr"/>
-      <c r="O224" t="n">
-        <v>912.15</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" s="2" t="n">
-        <v>44952</v>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>DEBITO REF. NOTA: 8022023-1-1-171-SECRET</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="n">
-        <v>427.71</v>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>8022023</t>
-        </is>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>171 SECRETARIA DA FAZENDA DO ESTADO08DO/0C2E/A2R0A23</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="n">
-        <v>44952</v>
-      </c>
-      <c r="L225" t="n">
-        <v>427.71</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-      <c r="N225" t="n">
-        <v>427.71</v>
-      </c>
-      <c r="O225" t="n">
-        <v>484.44</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" s="2" t="n">
-        <v>44953</v>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>CIELO VENDAS CREDITO</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>4 VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="n">
-        <v>0</v>
-      </c>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="inlineStr"/>
-      <c r="N226" t="inlineStr"/>
-      <c r="O226" t="n">
-        <v>2072.92</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" s="2" t="n">
-        <v>44953</v>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>CIELO ANTECIPAÇÃO DE RECE</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>32 GERAL</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="n">
-        <v>0</v>
-      </c>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="inlineStr"/>
-      <c r="N227" t="inlineStr"/>
-      <c r="O227" t="n">
-        <v>2072.93</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" s="2" t="n">
-        <v>44953</v>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO DE SALARIO-LUCILENE- MATRIZ</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>25 TRANSFERENCIA ENTRE CONTAS</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="n">
-        <v>100</v>
-      </c>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="inlineStr"/>
-      <c r="N228" t="inlineStr"/>
-      <c r="O228" t="n">
-        <v>1972.93</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>TED-CREDITO EM CONTA-PAGSEGURO-FIL. FORT</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>4 VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="n">
-        <v>0</v>
-      </c>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="inlineStr"/>
-      <c r="N229" t="inlineStr"/>
-      <c r="O229" t="n">
-        <v>5152.93</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>CIELO VENDAS DEBITO</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>4 VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="n">
-        <v>0</v>
-      </c>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="inlineStr"/>
-      <c r="N230" t="inlineStr"/>
-      <c r="O230" t="n">
-        <v>5314.64</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>CIELO VENDAS CREDITO</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>4 VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="n">
-        <v>0</v>
-      </c>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="inlineStr"/>
-      <c r="N231" t="inlineStr"/>
-      <c r="O231" t="n">
-        <v>5714.15</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>SEFA RJ GNRE</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="n">
-        <v>14.31</v>
-      </c>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="inlineStr"/>
-      <c r="N232" t="inlineStr"/>
-      <c r="O232" t="n">
-        <v>5699.84</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>SEFAZ RJ GNRE</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="n">
-        <v>52.97</v>
-      </c>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="inlineStr"/>
-      <c r="N233" t="inlineStr"/>
-      <c r="O233" t="n">
-        <v>5646.87</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>GOV. PARANA-SEFA - GNRE</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="inlineStr"/>
-      <c r="N234" t="inlineStr"/>
-      <c r="O234" t="n">
-        <v>5638.03</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>SEFAZ/SP- AMBIENTEPAG</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="inlineStr"/>
-      <c r="N235" t="inlineStr"/>
-      <c r="O235" t="n">
-        <v>5630.1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>SECRET. FAZENDA MG</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="n">
-        <v>36.69</v>
-      </c>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="inlineStr"/>
-      <c r="N236" t="inlineStr"/>
-      <c r="O236" t="n">
-        <v>5593.41</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>GNRE SEFAZ SC</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="inlineStr"/>
-      <c r="N237" t="inlineStr"/>
-      <c r="O237" t="n">
-        <v>5588.08</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>GOV. PARANA-SEFA- GNRE</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="inlineStr"/>
-      <c r="N238" t="inlineStr"/>
-      <c r="O238" t="n">
-        <v>5542.88</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>SEFA GNRE ON LINE</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="n">
-        <v>64.29000000000001</v>
-      </c>
-      <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="inlineStr"/>
-      <c r="N239" t="inlineStr"/>
-      <c r="O239" t="n">
-        <v>5478.59</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>GNRE ON LINE SEFAZ BA</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr"/>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="inlineStr"/>
-      <c r="N240" t="inlineStr"/>
-      <c r="O240" t="n">
-        <v>5472.82</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>GNRE ELETRONICA-SEFAZ MS</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="inlineStr"/>
-      <c r="N241" t="inlineStr"/>
-      <c r="O241" t="n">
-        <v>5466.86</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>DEBITO REF. NOTA: 30012023-1-2-1-WTC IND</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>28 DESPESAS ADMINISTRATIVAS</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="n">
-        <v>2067.16</v>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>30012023</t>
-        </is>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>2</v>
-      </c>
-      <c r="J242" t="inlineStr">
-        <is>
-          <t>1 WTC IND E COM DE CONF E EQUIPAM3EN0T/0OS1/2023</t>
-        </is>
-      </c>
-      <c r="K242" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="L242" t="n">
-        <v>2067.16</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-      <c r="N242" t="n">
-        <v>2067.16</v>
-      </c>
-      <c r="O242" t="n">
-        <v>3399.7</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>SELENE - NF 222746- FIL. SALVADOR</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>37 COMPRA MERC ADQ TERCEIROS</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="n">
-        <v>1612.38</v>
-      </c>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="inlineStr"/>
-      <c r="N243" t="inlineStr"/>
-      <c r="O243" t="n">
-        <v>1787.32</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" s="2" t="n">
-        <v>44957</v>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>PIX RECEBIDO - JULIO CESAR</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>4 VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="n">
-        <v>0</v>
-      </c>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="inlineStr"/>
-      <c r="N244" t="inlineStr"/>
-      <c r="O244" t="n">
-        <v>1982.82</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" s="2" t="n">
-        <v>44957</v>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>CIELO VENDAS CREDITO</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>4 VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="n">
-        <v>0</v>
-      </c>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="inlineStr"/>
-      <c r="N245" t="inlineStr"/>
-      <c r="O245" t="n">
-        <v>2568.03</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" s="2" t="n">
-        <v>44957</v>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>PIX RECEBIDO - HUGO LEONAR</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>4 VENDA VAREJO</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="n">
-        <v>0</v>
-      </c>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="inlineStr"/>
-      <c r="N246" t="inlineStr"/>
-      <c r="O246" t="n">
-        <v>2653.53</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" s="2" t="n">
-        <v>44957</v>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>GNRE- GEFAZ DF ONLINE</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="inlineStr"/>
-      <c r="N247" t="inlineStr"/>
-      <c r="O247" t="n">
-        <v>2640.75</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" s="2" t="n">
-        <v>44957</v>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>GNRE ON LINE</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="n">
-        <v>146.62</v>
-      </c>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="inlineStr"/>
-      <c r="N248" t="inlineStr"/>
-      <c r="O248" t="n">
-        <v>2494.13</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" s="2" t="n">
-        <v>44957</v>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>GNRE - GEFAZ DF ONLINE</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="n">
-        <v>70.16</v>
-      </c>
-      <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr"/>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="inlineStr"/>
-      <c r="N249" t="inlineStr"/>
-      <c r="O249" t="n">
-        <v>2423.97</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" s="2" t="n">
-        <v>44957</v>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>SEFAZ RJ GNRE</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr"/>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="inlineStr"/>
-      <c r="N250" t="inlineStr"/>
-      <c r="O250" t="n">
-        <v>2395.46</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" s="2" t="n">
-        <v>44957</v>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>SEFAZ - GNRE ON LINE</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="G251" t="inlineStr"/>
-      <c r="H251" t="inlineStr"/>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="inlineStr"/>
-      <c r="N251" t="inlineStr"/>
-      <c r="O251" t="n">
-        <v>2361.76</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" s="2" t="n">
-        <v>44957</v>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>GOVERNO DO RN GNRE</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="inlineStr"/>
-      <c r="N252" t="inlineStr"/>
-      <c r="O252" t="n">
-        <v>2350.03</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" s="2" t="n">
-        <v>44957</v>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>GOV RS GNRE ELETRONICA</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="G253" t="inlineStr"/>
-      <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="inlineStr"/>
-      <c r="N253" t="inlineStr"/>
-      <c r="O253" t="n">
-        <v>2341.11</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" s="2" t="n">
-        <v>44957</v>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>SECRET. FAZENDA MG</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>20 IMPOSTOS,TAXAS E CONTRIBUIÇÕES</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="n">
-        <v>29.61</v>
-      </c>
-      <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="inlineStr"/>
-      <c r="N254" t="inlineStr"/>
-      <c r="O254" t="n">
-        <v>2311.5</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" s="2" t="n">
-        <v>44957</v>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>PIX ENVIADO - VIACREDI</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>25 TRANSFERENCIA ENTRE CONTAS</t>
-        </is>
-      </c>
-      <c r="E255" t="n">
-        <v>0</v>
-      </c>
-      <c r="F255" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="inlineStr"/>
-      <c r="N255" t="inlineStr"/>
-      <c r="O255" t="n">
         <v>279.5</v>
       </c>
     </row>
